--- a/team_specific_matrix/Washington_B.xlsx
+++ b/team_specific_matrix/Washington_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1692650334075724</v>
+        <v>0.1697792869269949</v>
       </c>
       <c r="C2">
-        <v>0.6013363028953229</v>
+        <v>0.599320882852292</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008908685968819599</v>
+        <v>0.01188455008488964</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1314031180400891</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08908685968819599</v>
+        <v>0.0899830220713073</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01393728222996516</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C3">
-        <v>0.05574912891986063</v>
+        <v>0.05053191489361702</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01393728222996516</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6829268292682927</v>
+        <v>0.6941489361702128</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2334494773519164</v>
+        <v>0.2234042553191489</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06493506493506493</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7272727272727273</v>
+        <v>0.7029702970297029</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2077922077922078</v>
+        <v>0.2277227722772277</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06801007556675064</v>
+        <v>0.064453125</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02267002518891688</v>
+        <v>0.01953125</v>
       </c>
       <c r="E6">
-        <v>0.002518891687657431</v>
+        <v>0.00390625</v>
       </c>
       <c r="F6">
-        <v>0.08312342569269521</v>
+        <v>0.08203125</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2166246851385391</v>
+        <v>0.24609375</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02267002518891688</v>
+        <v>0.017578125</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1662468513853904</v>
+        <v>0.15625</v>
       </c>
       <c r="R6">
-        <v>0.06297229219143577</v>
+        <v>0.064453125</v>
       </c>
       <c r="S6">
-        <v>0.3551637279596978</v>
+        <v>0.345703125</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09917355371900827</v>
+        <v>0.1132478632478632</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01928374655647383</v>
+        <v>0.01495726495726496</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04683195592286502</v>
+        <v>0.04700854700854701</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.140495867768595</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01652892561983471</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1707988980716253</v>
+        <v>0.1645299145299145</v>
       </c>
       <c r="R7">
-        <v>0.07713498622589532</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S7">
-        <v>0.4297520661157025</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07142857142857142</v>
+        <v>0.08</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01354679802955665</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="E8">
-        <v>0.001231527093596059</v>
+        <v>0.0009523809523809524</v>
       </c>
       <c r="F8">
-        <v>0.05541871921182266</v>
+        <v>0.05047619047619047</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1169950738916256</v>
+        <v>0.1123809523809524</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.020935960591133</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1810344827586207</v>
+        <v>0.1828571428571429</v>
       </c>
       <c r="R8">
-        <v>0.0960591133004926</v>
+        <v>0.08761904761904762</v>
       </c>
       <c r="S8">
-        <v>0.4433497536945813</v>
+        <v>0.4485714285714286</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0743801652892562</v>
+        <v>0.07658643326039387</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01377410468319559</v>
+        <v>0.01531728665207877</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05509641873278237</v>
+        <v>0.05908096280087528</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1487603305785124</v>
+        <v>0.137855579868709</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02754820936639119</v>
+        <v>0.02407002188183808</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2066115702479339</v>
+        <v>0.2013129102844639</v>
       </c>
       <c r="R9">
-        <v>0.09917355371900827</v>
+        <v>0.09409190371991247</v>
       </c>
       <c r="S9">
-        <v>0.3746556473829201</v>
+        <v>0.3916849015317287</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09915140687807057</v>
+        <v>0.0986013986013986</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02188476998660116</v>
+        <v>0.02377622377622378</v>
       </c>
       <c r="E10">
-        <v>0.0008932559178204555</v>
+        <v>0.001048951048951049</v>
       </c>
       <c r="F10">
-        <v>0.07905314872711032</v>
+        <v>0.07727272727272727</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1246092005359535</v>
+        <v>0.1251748251748252</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0160786065207682</v>
+        <v>0.01608391608391608</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2125949084412684</v>
+        <v>0.2066433566433566</v>
       </c>
       <c r="R10">
-        <v>0.08307280035730237</v>
+        <v>0.07902097902097902</v>
       </c>
       <c r="S10">
-        <v>0.3626619026351049</v>
+        <v>0.3723776223776224</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1477477477477477</v>
+        <v>0.1518105849582173</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08648648648648649</v>
+        <v>0.08356545961002786</v>
       </c>
       <c r="K11">
-        <v>0.2072072072072072</v>
+        <v>0.2047353760445682</v>
       </c>
       <c r="L11">
-        <v>0.5423423423423424</v>
+        <v>0.5431754874651811</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01621621621621622</v>
+        <v>0.01671309192200557</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.756578947368421</v>
+        <v>0.7518796992481203</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1907894736842105</v>
+        <v>0.1854636591478697</v>
       </c>
       <c r="K12">
-        <v>0.009868421052631578</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="L12">
-        <v>0.009868421052631578</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03289473684210526</v>
+        <v>0.04010025062656641</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6888888888888889</v>
+        <v>0.6576576576576577</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2888888888888889</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02222222222222222</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01305483028720627</v>
+        <v>0.01232032854209446</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1592689295039164</v>
+        <v>0.1581108829568789</v>
       </c>
       <c r="I15">
-        <v>0.08093994778067885</v>
+        <v>0.08213552361396304</v>
       </c>
       <c r="J15">
-        <v>0.3315926892950392</v>
+        <v>0.3305954825462012</v>
       </c>
       <c r="K15">
-        <v>0.09138381201044386</v>
+        <v>0.08418891170431211</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.002610966057441253</v>
+        <v>0.002053388090349076</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04438642297650131</v>
+        <v>0.06160164271047228</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2767624020887728</v>
+        <v>0.2689938398357289</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.009836065573770493</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1737704918032787</v>
+        <v>0.1733668341708543</v>
       </c>
       <c r="I16">
-        <v>0.09508196721311475</v>
+        <v>0.09296482412060302</v>
       </c>
       <c r="J16">
-        <v>0.4065573770491803</v>
+        <v>0.3944723618090452</v>
       </c>
       <c r="K16">
-        <v>0.1016393442622951</v>
+        <v>0.1080402010050251</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02295081967213115</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03934426229508197</v>
+        <v>0.05025125628140704</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1508196721311476</v>
+        <v>0.1407035175879397</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01838235294117647</v>
+        <v>0.01958863858961802</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1862745098039216</v>
+        <v>0.1890303623898139</v>
       </c>
       <c r="I17">
-        <v>0.09926470588235294</v>
+        <v>0.09696376101860921</v>
       </c>
       <c r="J17">
-        <v>0.3970588235294117</v>
+        <v>0.4035259549461312</v>
       </c>
       <c r="K17">
-        <v>0.1004901960784314</v>
+        <v>0.09990205680705191</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01593137254901961</v>
+        <v>0.01469147894221352</v>
       </c>
       <c r="N17">
-        <v>0.001225490196078431</v>
+        <v>0.0009794319294809011</v>
       </c>
       <c r="O17">
-        <v>0.05882352941176471</v>
+        <v>0.05876591576885407</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1225490196078431</v>
+        <v>0.1165523996082272</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02824858757062147</v>
+        <v>0.02790697674418605</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.192090395480226</v>
+        <v>0.1906976744186047</v>
       </c>
       <c r="I18">
-        <v>0.1016949152542373</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="J18">
-        <v>0.3898305084745763</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="K18">
-        <v>0.1016949152542373</v>
+        <v>0.1093023255813954</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02259887005649718</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="N18">
-        <v>0.005649717514124294</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="O18">
-        <v>0.05367231638418079</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1045197740112994</v>
+        <v>0.1046511627906977</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01325088339222615</v>
+        <v>0.0161512027491409</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2137809187279152</v>
+        <v>0.2195876288659794</v>
       </c>
       <c r="I19">
-        <v>0.08259717314487633</v>
+        <v>0.0831615120274914</v>
       </c>
       <c r="J19">
-        <v>0.372791519434629</v>
+        <v>0.3680412371134021</v>
       </c>
       <c r="K19">
-        <v>0.1104240282685512</v>
+        <v>0.1130584192439863</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02606007067137809</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="N19">
-        <v>0.0004416961130742049</v>
+        <v>0.001030927835051546</v>
       </c>
       <c r="O19">
-        <v>0.07067137809187279</v>
+        <v>0.06769759450171821</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.109982332155477</v>
+        <v>0.1054982817869416</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Washington_B.xlsx
+++ b/team_specific_matrix/Washington_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1697792869269949</v>
+        <v>0.1716535433070866</v>
       </c>
       <c r="C2">
-        <v>0.599320882852292</v>
+        <v>0.5984251968503937</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01188455008488964</v>
+        <v>0.01102362204724409</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1290322580645161</v>
+        <v>0.1307086614173228</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0899830220713073</v>
+        <v>0.08818897637795275</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01063829787234043</v>
+        <v>0.009950248756218905</v>
       </c>
       <c r="C3">
-        <v>0.05053191489361702</v>
+        <v>0.0472636815920398</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02127659574468085</v>
+        <v>0.01990049751243781</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6941489361702128</v>
+        <v>0.6990049751243781</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2234042553191489</v>
+        <v>0.2238805970149254</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06930693069306931</v>
+        <v>0.06363636363636363</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7029702970297029</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2277227722772277</v>
+        <v>0.2272727272727273</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.064453125</v>
+        <v>0.06238532110091743</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01953125</v>
+        <v>0.02018348623853211</v>
       </c>
       <c r="E6">
-        <v>0.00390625</v>
+        <v>0.003669724770642202</v>
       </c>
       <c r="F6">
-        <v>0.08203125</v>
+        <v>0.08256880733944955</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.24609375</v>
+        <v>0.2440366972477064</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.017578125</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.15625</v>
+        <v>0.1614678899082569</v>
       </c>
       <c r="R6">
-        <v>0.064453125</v>
+        <v>0.06238532110091743</v>
       </c>
       <c r="S6">
-        <v>0.345703125</v>
+        <v>0.344954128440367</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1132478632478632</v>
+        <v>0.1142284569138277</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01495726495726496</v>
+        <v>0.01402805611222445</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04700854700854701</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1474358974358974</v>
+        <v>0.1503006012024048</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01282051282051282</v>
+        <v>0.01202404809619238</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1645299145299145</v>
+        <v>0.1703406813627255</v>
       </c>
       <c r="R7">
-        <v>0.07692307692307693</v>
+        <v>0.08016032064128256</v>
       </c>
       <c r="S7">
-        <v>0.4230769230769231</v>
+        <v>0.4128256513026052</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08</v>
+        <v>0.08399646330680813</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01333333333333333</v>
+        <v>0.01326259946949602</v>
       </c>
       <c r="E8">
-        <v>0.0009523809523809524</v>
+        <v>0.0008841732979664014</v>
       </c>
       <c r="F8">
-        <v>0.05047619047619047</v>
+        <v>0.04951370468611848</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1123809523809524</v>
+        <v>0.1114058355437666</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02380952380952381</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1828571428571429</v>
+        <v>0.1847922192749779</v>
       </c>
       <c r="R8">
-        <v>0.08761904761904762</v>
+        <v>0.08930150309460655</v>
       </c>
       <c r="S8">
-        <v>0.4485714285714286</v>
+        <v>0.4438549955791335</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07658643326039387</v>
+        <v>0.07942973523421588</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01531728665207877</v>
+        <v>0.01425661914460285</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05908096280087528</v>
+        <v>0.05906313645621181</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.137855579868709</v>
+        <v>0.1344195519348269</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02407002188183808</v>
+        <v>0.02443991853360489</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2013129102844639</v>
+        <v>0.1995926680244399</v>
       </c>
       <c r="R9">
-        <v>0.09409190371991247</v>
+        <v>0.09164969450101833</v>
       </c>
       <c r="S9">
-        <v>0.3916849015317287</v>
+        <v>0.3971486761710794</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0986013986013986</v>
+        <v>0.09729905629677839</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02377622377622378</v>
+        <v>0.02440611780019525</v>
       </c>
       <c r="E10">
-        <v>0.001048951048951049</v>
+        <v>0.0009762447120078099</v>
       </c>
       <c r="F10">
-        <v>0.07727272727272727</v>
+        <v>0.07679791734461439</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1251748251748252</v>
+        <v>0.1249593231369997</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01608391608391608</v>
+        <v>0.01561991539212496</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2066433566433566</v>
+        <v>0.2111942726976896</v>
       </c>
       <c r="R10">
-        <v>0.07902097902097902</v>
+        <v>0.08005206638464042</v>
       </c>
       <c r="S10">
-        <v>0.3723776223776224</v>
+        <v>0.3686950862349496</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1518105849582173</v>
+        <v>0.1526315789473684</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08356545961002786</v>
+        <v>0.08026315789473684</v>
       </c>
       <c r="K11">
-        <v>0.2047353760445682</v>
+        <v>0.2026315789473684</v>
       </c>
       <c r="L11">
-        <v>0.5431754874651811</v>
+        <v>0.5486842105263158</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01671309192200557</v>
+        <v>0.01578947368421053</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7518796992481203</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1854636591478697</v>
+        <v>0.1888111888111888</v>
       </c>
       <c r="K12">
-        <v>0.007518796992481203</v>
+        <v>0.009324009324009324</v>
       </c>
       <c r="L12">
-        <v>0.01503759398496241</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04010025062656641</v>
+        <v>0.0372960372960373</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6576576576576577</v>
+        <v>0.6637931034482759</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3153153153153153</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02702702702702703</v>
+        <v>0.02586206896551724</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01232032854209446</v>
+        <v>0.01167315175097276</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1581108829568789</v>
+        <v>0.1653696498054475</v>
       </c>
       <c r="I15">
-        <v>0.08213552361396304</v>
+        <v>0.08171206225680934</v>
       </c>
       <c r="J15">
-        <v>0.3305954825462012</v>
+        <v>0.3268482490272374</v>
       </c>
       <c r="K15">
-        <v>0.08418891170431211</v>
+        <v>0.08171206225680934</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.002053388090349076</v>
+        <v>0.003891050583657588</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06160164271047228</v>
+        <v>0.06031128404669261</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2689938398357289</v>
+        <v>0.2684824902723735</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02010050251256281</v>
+        <v>0.02320185614849188</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1733668341708543</v>
+        <v>0.1763341067285383</v>
       </c>
       <c r="I16">
-        <v>0.09296482412060302</v>
+        <v>0.08816705336426914</v>
       </c>
       <c r="J16">
-        <v>0.3944723618090452</v>
+        <v>0.4013921113689095</v>
       </c>
       <c r="K16">
-        <v>0.1080402010050251</v>
+        <v>0.1090487238979118</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02010050251256281</v>
+        <v>0.0185614849187935</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05025125628140704</v>
+        <v>0.04872389791183294</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1407035175879397</v>
+        <v>0.1345707656612529</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01958863858961802</v>
+        <v>0.01788908765652952</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1890303623898139</v>
+        <v>0.1887298747763864</v>
       </c>
       <c r="I17">
-        <v>0.09696376101860921</v>
+        <v>0.09570661896243292</v>
       </c>
       <c r="J17">
-        <v>0.4035259549461312</v>
+        <v>0.4069767441860465</v>
       </c>
       <c r="K17">
-        <v>0.09990205680705191</v>
+        <v>0.09749552772808587</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01469147894221352</v>
+        <v>0.01520572450805009</v>
       </c>
       <c r="N17">
-        <v>0.0009794319294809011</v>
+        <v>0.0008944543828264759</v>
       </c>
       <c r="O17">
-        <v>0.05876591576885407</v>
+        <v>0.05724508050089445</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1165523996082272</v>
+        <v>0.1198568872987478</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02790697674418605</v>
+        <v>0.02575107296137339</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1906976744186047</v>
+        <v>0.1995708154506438</v>
       </c>
       <c r="I18">
-        <v>0.09302325581395349</v>
+        <v>0.09656652360515021</v>
       </c>
       <c r="J18">
-        <v>0.3953488372093023</v>
+        <v>0.3927038626609442</v>
       </c>
       <c r="K18">
-        <v>0.1093023255813954</v>
+        <v>0.1030042918454936</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02325581395348837</v>
+        <v>0.02145922746781116</v>
       </c>
       <c r="N18">
-        <v>0.004651162790697674</v>
+        <v>0.004291845493562232</v>
       </c>
       <c r="O18">
-        <v>0.05116279069767442</v>
+        <v>0.04721030042918455</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1046511627906977</v>
+        <v>0.1094420600858369</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0161512027491409</v>
+        <v>0.01579626047711154</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2195876288659794</v>
+        <v>0.2176015473887814</v>
       </c>
       <c r="I19">
-        <v>0.0831615120274914</v>
+        <v>0.08381689232753063</v>
       </c>
       <c r="J19">
-        <v>0.3680412371134021</v>
+        <v>0.3707285622179239</v>
       </c>
       <c r="K19">
-        <v>0.1130584192439863</v>
+        <v>0.1128304319793682</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02577319587628866</v>
+        <v>0.02482269503546099</v>
       </c>
       <c r="N19">
-        <v>0.001030927835051546</v>
+        <v>0.001289490651192779</v>
       </c>
       <c r="O19">
-        <v>0.06769759450171821</v>
+        <v>0.06769825918762089</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1054982817869416</v>
+        <v>0.1054158607350097</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Washington_B.xlsx
+++ b/team_specific_matrix/Washington_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1716535433070866</v>
+        <v>0.1790123456790123</v>
       </c>
       <c r="C2">
-        <v>0.5984251968503937</v>
+        <v>0.582716049382716</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01102362204724409</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.001234567901234568</v>
       </c>
       <c r="P2">
-        <v>0.1307086614173228</v>
+        <v>0.1358024691358025</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08818897637795275</v>
+        <v>0.09012345679012346</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009950248756218905</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C3">
-        <v>0.0472636815920398</v>
+        <v>0.04216867469879518</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01990049751243781</v>
+        <v>0.01606425702811245</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6990049751243781</v>
+        <v>0.7088353413654619</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2238805970149254</v>
+        <v>0.2208835341365462</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06363636363636363</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7090909090909091</v>
+        <v>0.6940298507462687</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2272727272727273</v>
+        <v>0.2462686567164179</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06238532110091743</v>
+        <v>0.06618705035971223</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02018348623853211</v>
+        <v>0.01870503597122302</v>
       </c>
       <c r="E6">
-        <v>0.003669724770642202</v>
+        <v>0.004316546762589928</v>
       </c>
       <c r="F6">
-        <v>0.08256880733944955</v>
+        <v>0.08776978417266187</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2440366972477064</v>
+        <v>0.2316546762589928</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01834862385321101</v>
+        <v>0.02158273381294964</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1614678899082569</v>
+        <v>0.1611510791366906</v>
       </c>
       <c r="R6">
-        <v>0.06238532110091743</v>
+        <v>0.06762589928057554</v>
       </c>
       <c r="S6">
-        <v>0.344954128440367</v>
+        <v>0.3410071942446043</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1142284569138277</v>
+        <v>0.1064516129032258</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01402805611222445</v>
+        <v>0.01774193548387097</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04609218436873747</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1503006012024048</v>
+        <v>0.1435483870967742</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01202404809619238</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1703406813627255</v>
+        <v>0.1758064516129032</v>
       </c>
       <c r="R7">
-        <v>0.08016032064128256</v>
+        <v>0.08709677419354839</v>
       </c>
       <c r="S7">
-        <v>0.4128256513026052</v>
+        <v>0.4080645161290323</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08399646330680813</v>
+        <v>0.08738548273431994</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01326259946949602</v>
+        <v>0.01338971106412967</v>
       </c>
       <c r="E8">
-        <v>0.0008841732979664014</v>
+        <v>0.0007047216349541931</v>
       </c>
       <c r="F8">
-        <v>0.04951370468611848</v>
+        <v>0.0507399577167019</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1114058355437666</v>
+        <v>0.1042988019732206</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02298850574712644</v>
+        <v>0.02466525722339676</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1847922192749779</v>
+        <v>0.1874559548978154</v>
       </c>
       <c r="R8">
-        <v>0.08930150309460655</v>
+        <v>0.08879492600422834</v>
       </c>
       <c r="S8">
-        <v>0.4438549955791335</v>
+        <v>0.4425651867512332</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07942973523421588</v>
+        <v>0.07981220657276995</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01425661914460285</v>
+        <v>0.01564945226917058</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05906313645621181</v>
+        <v>0.06885758998435054</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1344195519348269</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02443991853360489</v>
+        <v>0.02660406885758998</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1995926680244399</v>
+        <v>0.2003129890453834</v>
       </c>
       <c r="R9">
-        <v>0.09164969450101833</v>
+        <v>0.09389671361502347</v>
       </c>
       <c r="S9">
-        <v>0.3971486761710794</v>
+        <v>0.3881064162754304</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09729905629677839</v>
+        <v>0.09747766684182869</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02440611780019525</v>
+        <v>0.02285864424592748</v>
       </c>
       <c r="E10">
-        <v>0.0009762447120078099</v>
+        <v>0.0007882291119285339</v>
       </c>
       <c r="F10">
-        <v>0.07679791734461439</v>
+        <v>0.07698370993168681</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1249593231369997</v>
+        <v>0.1182343667892801</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01561991539212496</v>
+        <v>0.01576458223857068</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2111942726976896</v>
+        <v>0.2141355754072517</v>
       </c>
       <c r="R10">
-        <v>0.08005206638464042</v>
+        <v>0.08276405675249605</v>
       </c>
       <c r="S10">
-        <v>0.3686950862349496</v>
+        <v>0.3709931686810299</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1526315789473684</v>
+        <v>0.1454352441613588</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08026315789473684</v>
+        <v>0.08598726114649681</v>
       </c>
       <c r="K11">
-        <v>0.2026315789473684</v>
+        <v>0.2006369426751592</v>
       </c>
       <c r="L11">
-        <v>0.5486842105263158</v>
+        <v>0.5520169851380042</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01578947368421053</v>
+        <v>0.01592356687898089</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7435897435897436</v>
+        <v>0.7518518518518519</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1888111888111888</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="K12">
-        <v>0.009324009324009324</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="L12">
-        <v>0.02097902097902098</v>
+        <v>0.02592592592592593</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0372960372960373</v>
+        <v>0.03518518518518519</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6637931034482759</v>
+        <v>0.6482758620689655</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3103448275862069</v>
+        <v>0.3310344827586207</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02586206896551724</v>
+        <v>0.02068965517241379</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01167315175097276</v>
+        <v>0.01337295690936107</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1653696498054475</v>
+        <v>0.1634472511144131</v>
       </c>
       <c r="I15">
-        <v>0.08171206225680934</v>
+        <v>0.08023774145616643</v>
       </c>
       <c r="J15">
-        <v>0.3268482490272374</v>
+        <v>0.325408618127786</v>
       </c>
       <c r="K15">
-        <v>0.08171206225680934</v>
+        <v>0.07429420505200594</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.003891050583657588</v>
+        <v>0.005943536404160475</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06031128404669261</v>
+        <v>0.07280832095096583</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2684824902723735</v>
+        <v>0.2644873699851412</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02320185614849188</v>
+        <v>0.02402957486136784</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1763341067285383</v>
+        <v>0.166358595194085</v>
       </c>
       <c r="I16">
-        <v>0.08816705336426914</v>
+        <v>0.09057301293900184</v>
       </c>
       <c r="J16">
-        <v>0.4013921113689095</v>
+        <v>0.4121996303142329</v>
       </c>
       <c r="K16">
-        <v>0.1090487238979118</v>
+        <v>0.1146025878003697</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0185614849187935</v>
+        <v>0.02033271719038817</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.001848428835489834</v>
       </c>
       <c r="O16">
-        <v>0.04872389791183294</v>
+        <v>0.04805914972273567</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1345707656612529</v>
+        <v>0.121996303142329</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01788908765652952</v>
+        <v>0.01623147494707128</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1887298747763864</v>
+        <v>0.1905434015525759</v>
       </c>
       <c r="I17">
-        <v>0.09570661896243292</v>
+        <v>0.09738884968242767</v>
       </c>
       <c r="J17">
-        <v>0.4069767441860465</v>
+        <v>0.4079040225829217</v>
       </c>
       <c r="K17">
-        <v>0.09749552772808587</v>
+        <v>0.09527170077628794</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01520572450805009</v>
+        <v>0.01340860973888497</v>
       </c>
       <c r="N17">
-        <v>0.0008944543828264759</v>
+        <v>0.001411432604093155</v>
       </c>
       <c r="O17">
-        <v>0.05724508050089445</v>
+        <v>0.05716302046577276</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1198568872987478</v>
+        <v>0.1206774876499647</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02575107296137339</v>
+        <v>0.02662229617304493</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1995708154506438</v>
+        <v>0.1913477537437604</v>
       </c>
       <c r="I18">
-        <v>0.09656652360515021</v>
+        <v>0.1014975041597338</v>
       </c>
       <c r="J18">
-        <v>0.3927038626609442</v>
+        <v>0.3943427620632279</v>
       </c>
       <c r="K18">
-        <v>0.1030042918454936</v>
+        <v>0.1048252911813644</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02145922746781116</v>
+        <v>0.01996672212978369</v>
       </c>
       <c r="N18">
-        <v>0.004291845493562232</v>
+        <v>0.003327787021630616</v>
       </c>
       <c r="O18">
-        <v>0.04721030042918455</v>
+        <v>0.04991680532445923</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1094420600858369</v>
+        <v>0.108153078202995</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01579626047711154</v>
+        <v>0.0149561629706034</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2176015473887814</v>
+        <v>0.2166064981949458</v>
       </c>
       <c r="I19">
-        <v>0.08381689232753063</v>
+        <v>0.08715832903558535</v>
       </c>
       <c r="J19">
-        <v>0.3707285622179239</v>
+        <v>0.3661681279009799</v>
       </c>
       <c r="K19">
-        <v>0.1128304319793682</v>
+        <v>0.111397627643115</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02482269503546099</v>
+        <v>0.02552862300154719</v>
       </c>
       <c r="N19">
-        <v>0.001289490651192779</v>
+        <v>0.001289324394017535</v>
       </c>
       <c r="O19">
-        <v>0.06769825918762089</v>
+        <v>0.06988138215575039</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1054158607350097</v>
+        <v>0.1070139247034554</v>
       </c>
     </row>
   </sheetData>
